--- a/app/Licenciatura_em_Literatura_Mocambicana.xlsx
+++ b/app/Licenciatura_em_Literatura_Mocambicana.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Filomena Augusta Matusse</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Amilcar Jose Zacarias</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110201409737J</t>
   </si>
   <si>
@@ -308,9 +302,6 @@
     <t>Graca Rafael Guambe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -338,9 +329,6 @@
     <t>Arminda Malinga</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>Casado</t>
   </si>
   <si>
@@ -368,9 +356,6 @@
     <t>Margarida  Jorge</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110502277230C</t>
   </si>
   <si>
@@ -416,9 +401,6 @@
     <t>Veronica Aurelio Chilaule</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Passaporte</t>
   </si>
   <si>
@@ -533,9 +515,6 @@
     <t>Quiteria Izaquiel</t>
   </si>
   <si>
-    <t>Distrito de Sussundenga</t>
-  </si>
-  <si>
     <t>060101447284 F</t>
   </si>
   <si>
@@ -674,9 +653,6 @@
     <t>Alexandrina Casimiro EugÉnio</t>
   </si>
   <si>
-    <t>Distrito de Chiure</t>
-  </si>
-  <si>
     <t>020402655440 S</t>
   </si>
   <si>
@@ -701,9 +677,6 @@
     <t xml:space="preserve">Ana Maria Mariano Arquer </t>
   </si>
   <si>
-    <t>Distrito de Gondola</t>
-  </si>
-  <si>
     <t>060301365206N</t>
   </si>
   <si>
@@ -789,9 +762,6 @@
   </si>
   <si>
     <t>Luisa Tembe</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
   </si>
   <si>
     <t>110100090110A</t>
@@ -2168,7 +2138,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2184,7 +2154,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2200,7 +2170,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2216,7 +2186,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2232,7 +2202,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2247,9 +2217,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2257,7 +2225,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2268,7 +2236,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2277,7 +2245,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2289,7 +2257,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2297,7 +2265,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2393,7 +2361,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2436,7 +2404,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2763,7 +2731,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2779,7 +2747,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2795,7 +2763,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2811,7 +2779,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2827,7 +2795,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2842,9 +2810,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2852,7 +2818,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2863,7 +2829,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2872,7 +2838,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2884,7 +2850,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2892,7 +2858,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2988,7 +2954,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3031,7 +2997,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3358,7 +3324,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3374,7 +3340,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3390,7 +3356,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3406,7 +3372,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3422,7 +3388,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3437,9 +3403,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3447,7 +3411,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3458,7 +3422,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3467,7 +3431,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3479,7 +3443,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3487,7 +3451,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3583,7 +3547,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3626,7 +3590,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3953,7 +3917,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3969,7 +3933,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3985,7 +3949,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4001,7 +3965,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4017,7 +3981,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4032,9 +3996,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4042,7 +4004,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4053,7 +4015,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4062,7 +4024,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4074,7 +4036,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4082,7 +4044,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4178,7 +4140,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4221,7 +4183,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4548,7 +4510,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4564,7 +4526,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4580,7 +4542,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4596,7 +4558,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4612,7 +4574,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4627,9 +4589,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4637,7 +4597,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4648,7 +4608,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4657,7 +4617,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4669,7 +4629,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4677,7 +4637,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4773,7 +4733,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4816,7 +4776,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5143,7 +5103,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5159,7 +5119,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5175,7 +5135,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5191,7 +5151,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5207,7 +5167,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5222,9 +5182,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>161</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5232,7 +5190,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5243,7 +5201,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5252,7 +5210,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5264,7 +5222,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5272,7 +5230,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5368,7 +5326,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5411,7 +5369,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5738,7 +5696,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5754,7 +5712,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5770,7 +5728,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5786,7 +5744,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5802,7 +5760,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5817,9 +5775,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5827,7 +5783,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5838,7 +5794,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5847,7 +5803,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5859,7 +5815,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5867,7 +5823,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5963,7 +5919,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6006,7 +5962,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6333,7 +6289,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6349,7 +6305,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6365,7 +6321,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6381,7 +6337,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6397,7 +6353,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6412,9 +6368,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6422,7 +6376,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6433,7 +6387,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6442,7 +6396,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6454,7 +6408,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6462,7 +6416,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6558,7 +6512,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6601,7 +6555,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6928,7 +6882,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6944,7 +6898,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6960,7 +6914,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6976,7 +6930,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6992,7 +6946,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7007,9 +6961,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7017,7 +6969,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7028,7 +6980,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7037,7 +6989,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7049,7 +7001,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7057,7 +7009,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7153,7 +7105,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7196,7 +7148,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7523,7 +7475,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7539,7 +7491,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7555,7 +7507,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7571,7 +7523,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7587,7 +7539,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7602,9 +7554,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7612,7 +7562,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7623,7 +7573,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7632,7 +7582,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7644,7 +7594,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7652,7 +7602,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7748,7 +7698,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7791,7 +7741,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8197,9 +8147,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8207,7 +8155,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8218,7 +8166,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8227,7 +8175,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8239,7 +8187,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8247,7 +8195,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8343,7 +8291,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8386,7 +8334,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8713,7 +8661,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8729,7 +8677,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8745,7 +8693,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8761,7 +8709,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8777,7 +8725,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8792,9 +8740,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8802,7 +8748,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8813,7 +8759,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8822,7 +8768,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8834,7 +8780,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8842,7 +8788,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8938,7 +8884,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8981,7 +8927,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9308,7 +9254,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9324,7 +9270,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9340,7 +9286,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9356,7 +9302,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9372,7 +9318,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9387,9 +9333,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>208</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9397,7 +9341,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9408,7 +9352,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9417,7 +9361,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9429,7 +9373,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9437,7 +9381,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9533,7 +9477,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9576,7 +9520,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9903,7 +9847,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9919,7 +9863,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9935,7 +9879,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9951,7 +9895,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9967,7 +9911,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9982,9 +9926,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>217</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9992,7 +9934,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10003,7 +9945,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10012,7 +9954,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10024,7 +9966,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10032,7 +9974,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10128,7 +10070,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10171,7 +10113,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10498,7 +10440,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10514,7 +10456,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10530,7 +10472,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10546,7 +10488,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10562,7 +10504,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10577,9 +10519,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10587,7 +10527,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10598,7 +10538,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10607,7 +10547,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10619,7 +10559,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10627,7 +10567,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10723,7 +10663,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10766,7 +10706,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11093,7 +11033,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11109,7 +11049,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11125,7 +11065,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11141,7 +11081,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11157,7 +11097,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11172,9 +11112,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11182,7 +11120,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11193,7 +11131,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11202,7 +11140,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11214,7 +11152,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11222,7 +11160,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11318,7 +11256,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11361,7 +11299,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11688,7 +11626,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11704,7 +11642,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11720,7 +11658,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11736,7 +11674,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11752,7 +11690,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11767,9 +11705,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11777,7 +11713,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11788,7 +11724,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11797,7 +11733,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11809,7 +11745,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11817,7 +11753,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11913,7 +11849,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11956,7 +11892,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12283,7 +12219,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12299,7 +12235,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12315,7 +12251,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12331,7 +12267,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12347,7 +12283,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12362,9 +12298,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>247</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12372,7 +12306,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12383,7 +12317,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12392,7 +12326,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12404,7 +12338,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12412,7 +12346,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12508,7 +12442,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12551,7 +12485,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12878,7 +12812,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12894,7 +12828,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12910,7 +12844,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12926,7 +12860,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12942,7 +12876,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12957,9 +12891,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12967,7 +12899,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12978,7 +12910,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12987,7 +12919,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12999,7 +12931,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13007,7 +12939,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13103,7 +13035,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13146,7 +13078,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13473,7 +13405,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13489,7 +13421,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13505,7 +13437,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13521,7 +13453,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13537,7 +13469,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13552,9 +13484,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13562,7 +13492,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13573,7 +13503,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13582,7 +13512,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13594,7 +13524,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13602,7 +13532,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13698,7 +13628,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13741,7 +13671,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14068,7 +13998,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14084,7 +14014,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14100,7 +14030,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14116,7 +14046,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14132,7 +14062,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14147,9 +14077,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14157,7 +14085,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14168,7 +14096,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14177,7 +14105,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14189,7 +14117,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14197,7 +14125,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14293,7 +14221,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14336,7 +14264,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14663,7 +14591,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14679,7 +14607,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14695,7 +14623,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14711,7 +14639,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14727,7 +14655,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14742,9 +14670,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14752,7 +14678,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14763,7 +14689,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14772,7 +14698,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14784,7 +14710,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14792,7 +14718,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14888,7 +14814,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14931,7 +14857,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15258,7 +15184,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15274,7 +15200,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15290,7 +15216,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15306,7 +15232,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15322,7 +15248,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15337,9 +15263,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>122</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15347,7 +15271,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15358,7 +15282,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15367,7 +15291,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15379,7 +15303,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15387,7 +15311,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15483,7 +15407,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15526,7 +15450,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15853,7 +15777,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15869,7 +15793,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15885,7 +15809,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15901,7 +15825,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15917,7 +15841,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15932,9 +15856,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15942,7 +15864,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15953,7 +15875,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15962,7 +15884,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15974,7 +15896,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15982,7 +15904,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16078,7 +16000,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16121,7 +16043,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16504,7 +16426,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16520,7 +16442,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16536,7 +16458,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16552,7 +16474,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16568,7 +16490,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16583,9 +16505,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16593,7 +16513,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16604,7 +16524,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16613,7 +16533,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16625,7 +16545,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16633,7 +16553,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16729,7 +16649,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16772,7 +16692,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17099,7 +17019,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17115,7 +17035,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17131,7 +17051,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17147,7 +17067,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17163,7 +17083,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17178,9 +17098,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17188,7 +17106,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17199,7 +17117,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17208,7 +17126,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17220,7 +17138,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17324,7 +17242,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17367,7 +17285,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17694,7 +17612,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17710,7 +17628,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17726,7 +17644,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17742,7 +17660,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17758,7 +17676,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17773,9 +17691,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17783,7 +17699,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17794,7 +17710,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17803,7 +17719,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17815,7 +17731,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17823,7 +17739,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17919,7 +17835,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17962,7 +17878,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18289,7 +18205,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18305,7 +18221,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18321,7 +18237,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18337,7 +18253,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18353,7 +18269,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18368,9 +18284,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>96</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18378,7 +18292,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18389,7 +18303,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18398,7 +18312,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18410,7 +18324,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18418,7 +18332,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18514,7 +18428,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18557,7 +18471,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18884,7 +18798,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18900,7 +18814,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18916,7 +18830,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18932,7 +18846,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18948,7 +18862,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18963,9 +18877,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18973,7 +18885,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18984,7 +18896,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18993,7 +18905,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19005,7 +18917,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19013,7 +18925,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19109,7 +19021,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19152,7 +19064,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19479,7 +19391,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19495,7 +19407,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19511,7 +19423,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19527,7 +19439,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19543,7 +19455,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19558,9 +19470,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19568,7 +19478,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19579,7 +19489,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19588,7 +19498,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19600,7 +19510,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19608,7 +19518,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19704,7 +19614,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19747,7 +19657,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
